--- a/output/xlsx/RF015 - Gerenciar Planos de Capacitacao de TI--GTP-.xlsx
+++ b/output/xlsx/RF015 - Gerenciar Planos de Capacitacao de TI--GTP-.xlsx
@@ -167,55 +167,55 @@
     <t>SYSTEM solicita confirmacao de exclusao mostrando o nome da Capacitacao de TI</t>
   </si>
   <si>
+    <t>Lider de Pessoas confirma a exclusao da Capacitacao de TI</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem das Planos de Capacitacao de TI sem a Capacitacao de TI excluida</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
     <t>Lider de Pessoas nao confirma a exclusao da Capacitacao de TI</t>
   </si>
   <si>
     <t>SYSTEM exibe a listagem das Planos de Capacitacao de TI com a Capacitacao de TI excluida</t>
   </si>
   <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas confirma a exclusao da Capacitacao de TI</t>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Novo' para criar uma nova Capacitacao de TI</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar a nova Capacitacao de TI, informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Planos de Capacitacao de TI a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem das Planos de Capacitacao de TI cadastradas apenas para visualizacao com a opcao 'Ajuda'</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Avaliacao informando que o usuario nao e o lider</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Capacitacao de TI, informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC8</t>
   </si>
   <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Capacitacao de TI</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Novo' para criar uma nova Capacitacao de TI</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar a nova Capacitacao de TI, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Planos de Capacitacao de TI a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem das Planos de Capacitacao de TI cadastradas apenas para visualizacao com a opcao 'Ajuda'</t>
-  </si>
-  <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Capacitacao de TI, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem das Planos de Capacitacao de TI sem a Capacitacao de TI excluida</t>
-  </si>
-  <si>
-    <t>TC8</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Avaliacao informando que o usuario nao e o lider</t>
   </si>
 </sst>
 </file>
@@ -1602,13 +1602,13 @@
         <v>3.0</v>
       </c>
       <c r="B71" t="s" s="7">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C71" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D71" t="s" s="7">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E71" t="s" s="6">
         <v>2</v>
@@ -1622,235 +1622,235 @@
         <v>4.0</v>
       </c>
       <c r="B72" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s" s="7">
+        <v>63</v>
+      </c>
+      <c r="E72" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F72" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73"/>
+    <row r="74"/>
+    <row r="75">
+      <c r="A75" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s" s="4">
+        <v>64</v>
+      </c>
+      <c r="C75" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E75" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F75" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D76" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E76" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F76" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B77" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C77" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E77" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F77" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B78" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C78" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D78" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E78" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F78" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B79" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D79" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E79" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F79" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B80" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E80" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F80" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B81" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D81" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E81" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F81" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B82" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="C72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D72" t="s" s="7">
+      <c r="C82" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="E72" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F72" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n" s="10">
+      <c r="E82" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n" s="10">
         <v>5.0</v>
       </c>
-      <c r="B73" t="s" s="7">
+      <c r="B83" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="C73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D73" t="s" s="7">
+      <c r="C83" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="E73" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F73" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n" s="10">
+      <c r="E83" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n" s="10">
         <v>6.0</v>
       </c>
-      <c r="B74" t="s" s="7">
+      <c r="B84" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="C74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s" s="7">
+      <c r="C84" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="E74" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F74" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B75" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D75" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E75" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F75" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B76" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C76" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D76" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="E76" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F76" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B77" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C77" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D77" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="E77" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F77" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="n" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B78" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="C78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D78" t="s" s="7">
-        <v>63</v>
-      </c>
-      <c r="E78" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79"/>
-    <row r="80"/>
-    <row r="81">
-      <c r="A81" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B81" t="s" s="4">
-        <v>64</v>
-      </c>
-      <c r="C81" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D81" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E81" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F81" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B82" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C82" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E82" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F82" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B83" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C83" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D83" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E83" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F83" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B84" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C84" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D84" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E84" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F84" t="s" s="5">
-        <v>25</v>
+      <c r="E84" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n" s="10">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="B85" t="s" s="7">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C85" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D85" t="s" s="7">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E85" t="s" s="6">
         <v>2</v>
@@ -1861,16 +1861,16 @@
     </row>
     <row r="86">
       <c r="A86" t="n" s="10">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="B86" t="s" s="7">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C86" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D86" t="s" s="7">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E86" t="s" s="6">
         <v>2</v>
@@ -1881,16 +1881,16 @@
     </row>
     <row r="87">
       <c r="A87" t="n" s="10">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="B87" t="s" s="7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C87" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D87" t="s" s="7">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E87" t="s" s="6">
         <v>2</v>
@@ -1901,10 +1901,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n" s="10">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="B88" t="s" s="7">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C88" t="s" s="6">
         <v>2</v>
@@ -2066,7 +2066,7 @@
         <v>4.0</v>
       </c>
       <c r="B98" t="s" s="7">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C98" t="s" s="6">
         <v>2</v>
@@ -2097,8 +2097,8 @@
     <mergeCell ref="B60:F60"/>
     <mergeCell ref="B66:D66"/>
     <mergeCell ref="B67:F67"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="B77:F77"/>
     <mergeCell ref="B92:D92"/>
     <mergeCell ref="B93:F93"/>
   </mergeCells>

--- a/output/xlsx/RF015 - Gerenciar Planos de Capacitacao de TI--GTP-.xlsx
+++ b/output/xlsx/RF015 - Gerenciar Planos de Capacitacao de TI--GTP-.xlsx
@@ -95,10 +95,10 @@
     <t>Lider de Pessoas acessa a funcionalidade de gestao de Planos de Capacitacao de TI a partir do menu inicial</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem das Planos de Capacitacao de TI cadastradas com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas seleciona um Planos de Capacitacao de TI da listagem</t>
+    <t>SYSTEM exibe a listagem dos Planos de Capacitacao de TI cadastrados com opcoes de 'Novo', 'Editar', 'Excluir' e 'Ajuda'</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas seleciona um Plano de Capacitacao de TI da listagem</t>
   </si>
   <si>
     <t>SYSTEM destaca a Capacitacao de TI selecionada na listagem</t>
@@ -110,25 +110,25 @@
     <t>SYSTEM apresenta o formulario para cadastro e alteracao de Planos de Capacitacao de TI</t>
   </si>
   <si>
-    <t>Lider de Pessoas escolha o 'Periodo Avaliativo' apropriado no campo de selecao</t>
+    <t>Lider de Pessoas escolhe o 'Periodo Avaliativo' apropriado no campo de selecao</t>
   </si>
   <si>
     <t>SYSTEM exibe o 'Periodo Avaliativo' selecionado corretamente</t>
   </si>
   <si>
-    <t>Lider de Pessoas selecione a 'Unidade' correspondente no campo de selecao de unidade</t>
+    <t>Lider de Pessoas seleciona a 'Unidade' correspondente no campo de selecao de unidade</t>
   </si>
   <si>
     <t>SYSTEM exibe o campo 'Unidade' preenchido corretamente</t>
   </si>
   <si>
-    <t>Lider de Pessoas preencha o campo 'Possiveis Capacitacoes' com informacoes sobre capacitacoes adicionais</t>
+    <t>Lider de Pessoas preenche o campo 'Possiveis Capacitacoes' com informacoes sobre capacitacoes adicionais</t>
   </si>
   <si>
     <t>SYSTEM exibe o campo 'Possiveis Capacitacoes' preenchido corretamente</t>
   </si>
   <si>
-    <t>Lider de Pessoas preencha o campo 'Observacao' com informacoes adicionais ou relevantes sobre o plano de capacitacao</t>
+    <t>Lider de Pessoas preenche o campo 'Observacao' com informacoes adicionais ou relevantes sobre o plano de capacitacao</t>
   </si>
   <si>
     <t>SYSTEM exibe o campo 'Observacao' preenchido corretamente</t>
@@ -170,7 +170,7 @@
     <t>Lider de Pessoas confirma a exclusao da Capacitacao de TI</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem das Planos de Capacitacao de TI sem a Capacitacao de TI excluida</t>
+    <t>SYSTEM exibe a listagem dos Planos de Capacitacao de TI sem a Capacitacao de TI excluida</t>
   </si>
   <si>
     <t>TC3</t>
@@ -179,7 +179,7 @@
     <t>Lider de Pessoas nao confirma a exclusao da Capacitacao de TI</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem das Planos de Capacitacao de TI com a Capacitacao de TI excluida</t>
+    <t>SYSTEM exibe a listagem dos Planos de Capacitacao de TI com a Capacitacao de TI nao excluida</t>
   </si>
   <si>
     <t>TC4</t>
@@ -197,7 +197,7 @@
     <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Planos de Capacitacao de TI a partir do menu inicial</t>
   </si>
   <si>
-    <t>SYSTEM exibe a listagem das Planos de Capacitacao de TI cadastradas apenas para visualizacao com a opcao 'Ajuda'</t>
+    <t>SYSTEM exibe a listagem dos Planos de Capacitacao de TI cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
   </si>
   <si>
     <t>TC6</t>
@@ -209,13 +209,13 @@
     <t>TC7</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Capacitacao de TI</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
     <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Capacitacao de TI, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC8</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Capacitacao de TI</t>
   </si>
 </sst>
 </file>
@@ -1764,13 +1764,13 @@
         <v>3.0</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D81" t="s" s="7">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="E81" t="s" s="6">
         <v>2</v>
@@ -1784,235 +1784,235 @@
         <v>4.0</v>
       </c>
       <c r="B82" t="s" s="7">
+        <v>51</v>
+      </c>
+      <c r="C82" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D82" t="s" s="7">
+        <v>65</v>
+      </c>
+      <c r="E82" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83"/>
+    <row r="84"/>
+    <row r="85">
+      <c r="A85" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="B85" t="s" s="4">
+        <v>66</v>
+      </c>
+      <c r="C85" t="s" s="4">
+        <v>14</v>
+      </c>
+      <c r="D85" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s" s="4">
+        <v>15</v>
+      </c>
+      <c r="F85" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="9">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s" s="9">
+        <v>17</v>
+      </c>
+      <c r="F86" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E87" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="B88" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="D88" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="E88" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="F88" t="s" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n" s="10">
+        <v>1.0</v>
+      </c>
+      <c r="B89" t="s" s="7">
+        <v>26</v>
+      </c>
+      <c r="C89" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D89" t="s" s="7">
+        <v>27</v>
+      </c>
+      <c r="E89" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F89" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n" s="10">
+        <v>2.0</v>
+      </c>
+      <c r="B90" t="s" s="7">
+        <v>28</v>
+      </c>
+      <c r="C90" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s" s="7">
+        <v>29</v>
+      </c>
+      <c r="E90" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F90" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n" s="10">
+        <v>3.0</v>
+      </c>
+      <c r="B91" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="C91" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s" s="7">
+        <v>31</v>
+      </c>
+      <c r="E91" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F91" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n" s="10">
+        <v>4.0</v>
+      </c>
+      <c r="B92" t="s" s="7">
         <v>32</v>
       </c>
-      <c r="C82" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D82" t="s" s="7">
+      <c r="C92" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s" s="7">
         <v>33</v>
       </c>
-      <c r="E82" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F82" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n" s="10">
+      <c r="E92" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F92" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n" s="10">
         <v>5.0</v>
       </c>
-      <c r="B83" t="s" s="7">
+      <c r="B93" t="s" s="7">
         <v>34</v>
       </c>
-      <c r="C83" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D83" t="s" s="7">
+      <c r="C93" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s" s="7">
         <v>35</v>
       </c>
-      <c r="E83" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F83" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n" s="10">
+      <c r="E93" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n" s="10">
         <v>6.0</v>
       </c>
-      <c r="B84" t="s" s="7">
+      <c r="B94" t="s" s="7">
         <v>36</v>
       </c>
-      <c r="C84" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D84" t="s" s="7">
+      <c r="C94" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s" s="7">
         <v>37</v>
       </c>
-      <c r="E84" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F84" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="B85" t="s" s="7">
-        <v>38</v>
-      </c>
-      <c r="C85" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D85" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="E85" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F85" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n" s="10">
-        <v>8.0</v>
-      </c>
-      <c r="B86" t="s" s="7">
-        <v>40</v>
-      </c>
-      <c r="C86" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D86" t="s" s="7">
-        <v>41</v>
-      </c>
-      <c r="E86" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F86" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="n" s="10">
-        <v>9.0</v>
-      </c>
-      <c r="B87" t="s" s="7">
-        <v>42</v>
-      </c>
-      <c r="C87" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s" s="7">
-        <v>43</v>
-      </c>
-      <c r="E87" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F87" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="n" s="10">
-        <v>10.0</v>
-      </c>
-      <c r="B88" t="s" s="7">
-        <v>44</v>
-      </c>
-      <c r="C88" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D88" t="s" s="7">
-        <v>65</v>
-      </c>
-      <c r="E88" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F88" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89"/>
-    <row r="90"/>
-    <row r="91">
-      <c r="A91" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B91" t="s" s="4">
-        <v>66</v>
-      </c>
-      <c r="C91" t="s" s="4">
-        <v>14</v>
-      </c>
-      <c r="D91" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E91" t="s" s="4">
-        <v>15</v>
-      </c>
-      <c r="F91" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="9">
-        <v>16</v>
-      </c>
-      <c r="B92" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C92" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D92" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E92" t="s" s="9">
-        <v>17</v>
-      </c>
-      <c r="F92" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B93" t="s" s="8">
-        <v>19</v>
-      </c>
-      <c r="C93" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D93" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E93" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F93" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="5">
-        <v>20</v>
-      </c>
-      <c r="B94" t="s" s="5">
-        <v>21</v>
-      </c>
-      <c r="C94" t="s" s="5">
-        <v>22</v>
-      </c>
-      <c r="D94" t="s" s="5">
-        <v>23</v>
-      </c>
-      <c r="E94" t="s" s="5">
-        <v>24</v>
-      </c>
-      <c r="F94" t="s" s="5">
-        <v>25</v>
+      <c r="E94" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F94" t="s" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n" s="10">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="B95" t="s" s="7">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C95" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D95" t="s" s="7">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E95" t="s" s="6">
         <v>2</v>
@@ -2023,16 +2023,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n" s="10">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="B96" t="s" s="7">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C96" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D96" t="s" s="7">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E96" t="s" s="6">
         <v>2</v>
@@ -2043,16 +2043,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n" s="10">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="B97" t="s" s="7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C97" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D97" t="s" s="7">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E97" t="s" s="6">
         <v>2</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n" s="10">
-        <v>4.0</v>
+        <v>10.0</v>
       </c>
       <c r="B98" t="s" s="7">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C98" t="s" s="6">
         <v>2</v>
@@ -2099,8 +2099,8 @@
     <mergeCell ref="B67:F67"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B92:D92"/>
-    <mergeCell ref="B93:F93"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B87:F87"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/output/xlsx/RF015 - Gerenciar Planos de Capacitacao de TI--GTP-.xlsx
+++ b/output/xlsx/RF015 - Gerenciar Planos de Capacitacao de TI--GTP-.xlsx
@@ -170,52 +170,52 @@
     <t>Lider de Pessoas confirma a exclusao da Capacitacao de TI</t>
   </si>
   <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Capacitacao de TI</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas nao confirma a exclusao da Capacitacao de TI</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Planos de Capacitacao de TI com a Capacitacao de TI nao excluida</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Lider de Pessoas clica na opcao 'Novo' para criar uma nova Capacitacao de TI</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar a nova Capacitacao de TI, informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Planos de Capacitacao de TI a partir do menu inicial</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe a listagem dos Planos de Capacitacao de TI cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Avaliacao informando que o usuario nao e o lider</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Capacitacao de TI, informando o campo ou a validacao que falhou</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
     <t>SYSTEM exibe a listagem dos Planos de Capacitacao de TI sem a Capacitacao de TI excluida</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas nao confirma a exclusao da Capacitacao de TI</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Planos de Capacitacao de TI com a Capacitacao de TI nao excluida</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Lider de Pessoas clica na opcao 'Novo' para criar uma nova Capacitacao de TI</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar salvar a nova Capacitacao de TI, informando o campo ou a validacao que falhou</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>Usuario Nao-Autenticado acessa a funcionalidade de gestao de Planos de Capacitacao de TI a partir do menu inicial</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe a listagem dos Planos de Capacitacao de TI cadastrados apenas para visualizacao com a opcao 'Ajuda'</t>
-  </si>
-  <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Avaliacao informando que o usuario nao e o lider</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar excluir a Capacitacao de TI</t>
-  </si>
-  <si>
-    <t>TC8</t>
-  </si>
-  <si>
-    <t>SYSTEM exibe uma mensagem de erro ao tentar editar a Capacitacao de TI, informando o campo ou a validacao que falhou</t>
   </si>
 </sst>
 </file>
@@ -1764,13 +1764,13 @@
         <v>3.0</v>
       </c>
       <c r="B81" t="s" s="7">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C81" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D81" t="s" s="7">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="E81" t="s" s="6">
         <v>2</v>
@@ -1784,235 +1784,235 @@
         <v>4.0</v>
       </c>
       <c r="B82" t="s" s="7">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C82" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D82" t="s" s="7">
+        <v>33</v>
+      </c>
+      <c r="E82" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F82" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="B83" t="s" s="7">
+        <v>34</v>
+      </c>
+      <c r="C83" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s" s="7">
+        <v>35</v>
+      </c>
+      <c r="E83" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F83" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n" s="10">
+        <v>6.0</v>
+      </c>
+      <c r="B84" t="s" s="7">
+        <v>36</v>
+      </c>
+      <c r="C84" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D84" t="s" s="7">
+        <v>37</v>
+      </c>
+      <c r="E84" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F84" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n" s="10">
+        <v>7.0</v>
+      </c>
+      <c r="B85" t="s" s="7">
+        <v>38</v>
+      </c>
+      <c r="C85" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s" s="7">
+        <v>39</v>
+      </c>
+      <c r="E85" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n" s="10">
+        <v>8.0</v>
+      </c>
+      <c r="B86" t="s" s="7">
+        <v>40</v>
+      </c>
+      <c r="C86" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s" s="7">
+        <v>41</v>
+      </c>
+      <c r="E86" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n" s="10">
+        <v>9.0</v>
+      </c>
+      <c r="B87" t="s" s="7">
+        <v>42</v>
+      </c>
+      <c r="C87" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s" s="7">
+        <v>43</v>
+      </c>
+      <c r="E87" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F87" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n" s="10">
+        <v>10.0</v>
+      </c>
+      <c r="B88" t="s" s="7">
+        <v>44</v>
+      </c>
+      <c r="C88" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="D88" t="s" s="7">
         <v>65</v>
       </c>
-      <c r="E82" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F82" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83"/>
-    <row r="84"/>
-    <row r="85">
-      <c r="A85" t="s" s="4">
+      <c r="E88" t="s" s="6">
+        <v>2</v>
+      </c>
+      <c r="F88" t="s" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89"/>
+    <row r="90"/>
+    <row r="91">
+      <c r="A91" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="B85" t="s" s="4">
+      <c r="B91" t="s" s="4">
         <v>66</v>
       </c>
-      <c r="C85" t="s" s="4">
+      <c r="C91" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="D85" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E85" t="s" s="4">
+      <c r="D91" t="s" s="4">
+        <v>2</v>
+      </c>
+      <c r="E91" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="F85" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="9">
+      <c r="F91" t="s" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="9">
         <v>16</v>
       </c>
-      <c r="B86" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="C86" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="D86" t="s" s="9">
-        <v>2</v>
-      </c>
-      <c r="E86" t="s" s="9">
+      <c r="B92" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s" s="9">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s" s="9">
         <v>17</v>
       </c>
-      <c r="F86" t="s" s="9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s" s="8">
+      <c r="F92" t="s" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="8">
         <v>18</v>
       </c>
-      <c r="B87" t="s" s="8">
+      <c r="B93" t="s" s="8">
         <v>19</v>
       </c>
-      <c r="C87" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="D87" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="E87" t="s" s="8">
-        <v>2</v>
-      </c>
-      <c r="F87" t="s" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="5">
+      <c r="C93" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s" s="8">
+        <v>2</v>
+      </c>
+      <c r="F93" t="s" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="B88" t="s" s="5">
+      <c r="B94" t="s" s="5">
         <v>21</v>
       </c>
-      <c r="C88" t="s" s="5">
+      <c r="C94" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="D88" t="s" s="5">
+      <c r="D94" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="E88" t="s" s="5">
+      <c r="E94" t="s" s="5">
         <v>24</v>
       </c>
-      <c r="F88" t="s" s="5">
+      <c r="F94" t="s" s="5">
         <v>25</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="n" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="B89" t="s" s="7">
-        <v>26</v>
-      </c>
-      <c r="C89" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D89" t="s" s="7">
-        <v>27</v>
-      </c>
-      <c r="E89" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F89" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="n" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="B90" t="s" s="7">
-        <v>28</v>
-      </c>
-      <c r="C90" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D90" t="s" s="7">
-        <v>29</v>
-      </c>
-      <c r="E90" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F90" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="n" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="B91" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="C91" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D91" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="E91" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F91" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="n" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="B92" t="s" s="7">
-        <v>32</v>
-      </c>
-      <c r="C92" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D92" t="s" s="7">
-        <v>33</v>
-      </c>
-      <c r="E92" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F92" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="n" s="10">
-        <v>5.0</v>
-      </c>
-      <c r="B93" t="s" s="7">
-        <v>34</v>
-      </c>
-      <c r="C93" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D93" t="s" s="7">
-        <v>35</v>
-      </c>
-      <c r="E93" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F93" t="s" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="n" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="B94" t="s" s="7">
-        <v>36</v>
-      </c>
-      <c r="C94" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="D94" t="s" s="7">
-        <v>37</v>
-      </c>
-      <c r="E94" t="s" s="6">
-        <v>2</v>
-      </c>
-      <c r="F94" t="s" s="6">
-        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n" s="10">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="B95" t="s" s="7">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C95" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D95" t="s" s="7">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="E95" t="s" s="6">
         <v>2</v>
@@ -2023,16 +2023,16 @@
     </row>
     <row r="96">
       <c r="A96" t="n" s="10">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="B96" t="s" s="7">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C96" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D96" t="s" s="7">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E96" t="s" s="6">
         <v>2</v>
@@ -2043,16 +2043,16 @@
     </row>
     <row r="97">
       <c r="A97" t="n" s="10">
-        <v>9.0</v>
+        <v>3.0</v>
       </c>
       <c r="B97" t="s" s="7">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C97" t="s" s="6">
         <v>2</v>
       </c>
       <c r="D97" t="s" s="7">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E97" t="s" s="6">
         <v>2</v>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n" s="10">
-        <v>10.0</v>
+        <v>4.0</v>
       </c>
       <c r="B98" t="s" s="7">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C98" t="s" s="6">
         <v>2</v>
@@ -2099,8 +2099,8 @@
     <mergeCell ref="B67:F67"/>
     <mergeCell ref="B76:D76"/>
     <mergeCell ref="B77:F77"/>
-    <mergeCell ref="B86:D86"/>
-    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="B92:D92"/>
+    <mergeCell ref="B93:F93"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
